--- a/natmiOut/OldD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F8</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09646379177093</v>
+        <v>1.845541</v>
       </c>
       <c r="H2">
-        <v>1.09646379177093</v>
+        <v>5.536623</v>
       </c>
       <c r="I2">
-        <v>0.5212822500001918</v>
+        <v>0.5735115044949967</v>
       </c>
       <c r="J2">
-        <v>0.5212822500001918</v>
+        <v>0.5847017168716782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>3.683133999750689</v>
+        <v>7.283749910994666</v>
       </c>
       <c r="R2">
-        <v>3.683133999750689</v>
+        <v>65.55374919895199</v>
       </c>
       <c r="S2">
-        <v>0.003720673956769422</v>
+        <v>0.004635285064774084</v>
       </c>
       <c r="T2">
-        <v>0.003720673956769422</v>
+        <v>0.004863363838974283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09646379177093</v>
+        <v>1.845541</v>
       </c>
       <c r="H3">
-        <v>1.09646379177093</v>
+        <v>5.536623</v>
       </c>
       <c r="I3">
-        <v>0.5212822500001918</v>
+        <v>0.5735115044949967</v>
       </c>
       <c r="J3">
-        <v>0.5212822500001918</v>
+        <v>0.5847017168716782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>191.9160065857571</v>
+        <v>342.9065825796843</v>
       </c>
       <c r="R3">
-        <v>191.9160065857571</v>
+        <v>3086.159243217159</v>
       </c>
       <c r="S3">
-        <v>0.1938720903554282</v>
+        <v>0.2182213530485253</v>
       </c>
       <c r="T3">
-        <v>0.1938720903554282</v>
+        <v>0.228958914603446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09646379177093</v>
+        <v>1.845541</v>
       </c>
       <c r="H4">
-        <v>1.09646379177093</v>
+        <v>5.536623</v>
       </c>
       <c r="I4">
-        <v>0.5212822500001918</v>
+        <v>0.5735115044949967</v>
       </c>
       <c r="J4">
-        <v>0.5212822500001918</v>
+        <v>0.5847017168716782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>126.7186607526794</v>
+        <v>216.5547185235643</v>
       </c>
       <c r="R4">
-        <v>126.7186607526794</v>
+        <v>1948.992466712079</v>
       </c>
       <c r="S4">
-        <v>0.1280102274126079</v>
+        <v>0.1378126466098773</v>
       </c>
       <c r="T4">
-        <v>0.1280102274126079</v>
+        <v>0.1445937051788389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09646379177093</v>
+        <v>1.845541</v>
       </c>
       <c r="H5">
-        <v>1.09646379177093</v>
+        <v>5.536623</v>
       </c>
       <c r="I5">
-        <v>0.5212822500001918</v>
+        <v>0.5735115044949967</v>
       </c>
       <c r="J5">
-        <v>0.5212822500001918</v>
+        <v>0.5847017168716782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>148.7389367590752</v>
+        <v>257.9404734614123</v>
       </c>
       <c r="R5">
-        <v>148.7389367590752</v>
+        <v>2321.464261152711</v>
       </c>
       <c r="S5">
-        <v>0.1502549427727922</v>
+        <v>0.1641500104817802</v>
       </c>
       <c r="T5">
-        <v>0.1502549427727922</v>
+        <v>0.1722269966115338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09646379177093</v>
+        <v>1.845541</v>
       </c>
       <c r="H6">
-        <v>1.09646379177093</v>
+        <v>5.536623</v>
       </c>
       <c r="I6">
-        <v>0.5212822500001918</v>
+        <v>0.5735115044949967</v>
       </c>
       <c r="J6">
-        <v>0.5212822500001918</v>
+        <v>0.5847017168716782</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>44.9660042204485</v>
+        <v>76.51349811853399</v>
       </c>
       <c r="R6">
-        <v>44.9660042204485</v>
+        <v>459.0809887112039</v>
       </c>
       <c r="S6">
-        <v>0.0454243155025941</v>
+        <v>0.04869220929003974</v>
       </c>
       <c r="T6">
-        <v>0.0454243155025941</v>
+        <v>0.03405873663888509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.809293656032801</v>
+        <v>0.881166</v>
       </c>
       <c r="H7">
-        <v>0.809293656032801</v>
+        <v>2.643498</v>
       </c>
       <c r="I7">
-        <v>0.3847554484642716</v>
+        <v>0.2738269365838192</v>
       </c>
       <c r="J7">
-        <v>0.3847554484642716</v>
+        <v>0.2791697789693912</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>2.718500148101266</v>
+        <v>3.477675529328</v>
       </c>
       <c r="R7">
-        <v>2.718500148101266</v>
+        <v>31.299079763952</v>
       </c>
       <c r="S7">
-        <v>0.002746208175754359</v>
+        <v>0.002213148122630015</v>
       </c>
       <c r="T7">
-        <v>0.002746208175754359</v>
+        <v>0.002322045871933278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.809293656032801</v>
+        <v>0.881166</v>
       </c>
       <c r="H8">
-        <v>0.809293656032801</v>
+        <v>2.643498</v>
       </c>
       <c r="I8">
-        <v>0.3847554484642716</v>
+        <v>0.2738269365838192</v>
       </c>
       <c r="J8">
-        <v>0.3847554484642716</v>
+        <v>0.2791697789693912</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>141.6521072439123</v>
+        <v>163.723061013226</v>
       </c>
       <c r="R8">
-        <v>141.6521072439123</v>
+        <v>1473.507549119034</v>
       </c>
       <c r="S8">
-        <v>0.143095881491037</v>
+        <v>0.1041912570787411</v>
       </c>
       <c r="T8">
-        <v>0.143095881491037</v>
+        <v>0.1093179782759961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.809293656032801</v>
+        <v>0.881166</v>
       </c>
       <c r="H9">
-        <v>0.809293656032801</v>
+        <v>2.643498</v>
       </c>
       <c r="I9">
-        <v>0.3847554484642716</v>
+        <v>0.2738269365838192</v>
       </c>
       <c r="J9">
-        <v>0.3847554484642716</v>
+        <v>0.2791697789693912</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>93.53031902903105</v>
+        <v>103.395511182106</v>
       </c>
       <c r="R9">
-        <v>93.53031902903105</v>
+        <v>930.5596006389541</v>
       </c>
       <c r="S9">
-        <v>0.09448361699661406</v>
+        <v>0.06579957777293442</v>
       </c>
       <c r="T9">
-        <v>0.09448361699661406</v>
+        <v>0.06903723992998086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.809293656032801</v>
+        <v>0.881166</v>
       </c>
       <c r="H10">
-        <v>0.809293656032801</v>
+        <v>2.643498</v>
       </c>
       <c r="I10">
-        <v>0.3847554484642716</v>
+        <v>0.2738269365838192</v>
       </c>
       <c r="J10">
-        <v>0.3847554484642716</v>
+        <v>0.2791697789693912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>109.7833588556216</v>
+        <v>123.155419054954</v>
       </c>
       <c r="R10">
-        <v>109.7833588556216</v>
+        <v>1108.398771494586</v>
       </c>
       <c r="S10">
-        <v>0.1109023142270773</v>
+        <v>0.07837452981872978</v>
       </c>
       <c r="T10">
-        <v>0.1109023142270773</v>
+        <v>0.08223094133167394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.809293656032801</v>
+        <v>0.881166</v>
       </c>
       <c r="H11">
-        <v>0.809293656032801</v>
+        <v>2.643498</v>
       </c>
       <c r="I11">
-        <v>0.3847554484642716</v>
+        <v>0.2738269365838192</v>
       </c>
       <c r="J11">
-        <v>0.3847554484642716</v>
+        <v>0.2791697789693912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>33.18915063668219</v>
+        <v>36.531885817284</v>
       </c>
       <c r="R11">
-        <v>33.18915063668219</v>
+        <v>219.191314903704</v>
       </c>
       <c r="S11">
-        <v>0.03352742757378892</v>
+        <v>0.02324842379078393</v>
       </c>
       <c r="T11">
-        <v>0.03352742757378892</v>
+        <v>0.01626157355980703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.197640072005406</v>
+        <v>0.09689233333333334</v>
       </c>
       <c r="H12">
-        <v>0.197640072005406</v>
+        <v>0.290677</v>
       </c>
       <c r="I12">
-        <v>0.09396230153553664</v>
+        <v>0.0301097986249185</v>
       </c>
       <c r="J12">
-        <v>0.09396230153553664</v>
+        <v>0.03069729345037739</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>0.6638932123244825</v>
+        <v>0.3824025173608889</v>
       </c>
       <c r="R12">
-        <v>0.6638932123244825</v>
+        <v>3.441622656248</v>
       </c>
       <c r="S12">
-        <v>0.0006706598742643894</v>
+        <v>0.0002433560596004707</v>
       </c>
       <c r="T12">
-        <v>0.0006706598742643894</v>
+        <v>0.0002553303720736499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.197640072005406</v>
+        <v>0.09689233333333334</v>
       </c>
       <c r="H13">
-        <v>0.197640072005406</v>
+        <v>0.290677</v>
       </c>
       <c r="I13">
-        <v>0.09396230153553664</v>
+        <v>0.0301097986249185</v>
       </c>
       <c r="J13">
-        <v>0.09396230153553664</v>
+        <v>0.03069729345037739</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>34.5932931349577</v>
+        <v>18.00286143819345</v>
       </c>
       <c r="R13">
-        <v>34.5932931349577</v>
+        <v>162.025752943741</v>
       </c>
       <c r="S13">
-        <v>0.03494588164721674</v>
+        <v>0.01145679022033579</v>
       </c>
       <c r="T13">
-        <v>0.03494588164721674</v>
+        <v>0.01202052052671563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.197640072005406</v>
+        <v>0.09689233333333334</v>
       </c>
       <c r="H14">
-        <v>0.197640072005406</v>
+        <v>0.290677</v>
       </c>
       <c r="I14">
-        <v>0.09396230153553664</v>
+        <v>0.0301097986249185</v>
       </c>
       <c r="J14">
-        <v>0.09396230153553664</v>
+        <v>0.03069729345037739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>22.84132446830533</v>
+        <v>11.36929061564678</v>
       </c>
       <c r="R14">
-        <v>22.84132446830533</v>
+        <v>102.323615540821</v>
       </c>
       <c r="S14">
-        <v>0.02307413227243332</v>
+        <v>0.007235270792072951</v>
       </c>
       <c r="T14">
-        <v>0.02307413227243332</v>
+        <v>0.007591281624244484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.197640072005406</v>
+        <v>0.09689233333333334</v>
       </c>
       <c r="H15">
-        <v>0.197640072005406</v>
+        <v>0.290677</v>
       </c>
       <c r="I15">
-        <v>0.09396230153553664</v>
+        <v>0.0301097986249185</v>
       </c>
       <c r="J15">
-        <v>0.09396230153553664</v>
+        <v>0.03069729345037739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>26.81052889452153</v>
+        <v>13.54207483593211</v>
       </c>
       <c r="R15">
-        <v>26.81052889452153</v>
+        <v>121.878673523389</v>
       </c>
       <c r="S15">
-        <v>0.02708379239848798</v>
+        <v>0.008618002814497653</v>
       </c>
       <c r="T15">
-        <v>0.02708379239848798</v>
+        <v>0.00904205084833315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09689233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.290677</v>
+      </c>
+      <c r="I16">
+        <v>0.0301097986249185</v>
+      </c>
+      <c r="J16">
+        <v>0.03069729345037739</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.458574</v>
+      </c>
+      <c r="N16">
+        <v>82.917148</v>
+      </c>
+      <c r="O16">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P16">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q16">
+        <v>4.017017971532667</v>
+      </c>
+      <c r="R16">
+        <v>24.102107829196</v>
+      </c>
+      <c r="S16">
+        <v>0.002556378738411642</v>
+      </c>
+      <c r="T16">
+        <v>0.001788110079010473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.209608</v>
+      </c>
+      <c r="H17">
+        <v>0.6288239999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.06513678072401927</v>
+      </c>
+      <c r="J17">
+        <v>0.06640771322340643</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.840024</v>
+      </c>
+      <c r="O17">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P17">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q17">
+        <v>0.8272545835306666</v>
+      </c>
+      <c r="R17">
+        <v>7.445291251775999</v>
+      </c>
+      <c r="S17">
+        <v>0.0005264542114519082</v>
+      </c>
+      <c r="T17">
+        <v>0.0005523583423829228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.209608</v>
+      </c>
+      <c r="H18">
+        <v>0.6288239999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.06513678072401927</v>
+      </c>
+      <c r="J18">
+        <v>0.06640771322340643</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N18">
+        <v>557.408233</v>
+      </c>
+      <c r="O18">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P18">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q18">
+        <v>38.94574163422133</v>
+      </c>
+      <c r="R18">
+        <v>350.511674707992</v>
+      </c>
+      <c r="S18">
+        <v>0.02478457068675</v>
+      </c>
+      <c r="T18">
+        <v>0.02600409320204705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.209608</v>
+      </c>
+      <c r="H19">
+        <v>0.6288239999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.06513678072401927</v>
+      </c>
+      <c r="J19">
+        <v>0.06640771322340643</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N19">
+        <v>352.018273</v>
+      </c>
+      <c r="O19">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P19">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q19">
+        <v>24.59528205566133</v>
+      </c>
+      <c r="R19">
+        <v>221.357538500952</v>
+      </c>
+      <c r="S19">
+        <v>0.01565212218563725</v>
+      </c>
+      <c r="T19">
+        <v>0.0164222834145251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.209608</v>
+      </c>
+      <c r="H20">
+        <v>0.6288239999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.06513678072401927</v>
+      </c>
+      <c r="J20">
+        <v>0.06640771322340643</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N20">
+        <v>419.292457</v>
+      </c>
+      <c r="O20">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P20">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q20">
+        <v>29.29568444228533</v>
+      </c>
+      <c r="R20">
+        <v>263.661159980568</v>
+      </c>
+      <c r="S20">
+        <v>0.01864339800473952</v>
+      </c>
+      <c r="T20">
+        <v>0.01956074468448568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.197640072005406</v>
-      </c>
-      <c r="H16">
-        <v>0.197640072005406</v>
-      </c>
-      <c r="I16">
-        <v>0.09396230153553664</v>
-      </c>
-      <c r="J16">
-        <v>0.09396230153553664</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N16">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O16">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P16">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q16">
-        <v>8.105223700612173</v>
-      </c>
-      <c r="R16">
-        <v>8.105223700612173</v>
-      </c>
-      <c r="S16">
-        <v>0.00818783534313422</v>
-      </c>
-      <c r="T16">
-        <v>0.00818783534313422</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.209608</v>
+      </c>
+      <c r="H21">
+        <v>0.6288239999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.06513678072401927</v>
+      </c>
+      <c r="J21">
+        <v>0.06640771322340643</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>8.690048778991999</v>
+      </c>
+      <c r="R21">
+        <v>52.14029267395199</v>
+      </c>
+      <c r="S21">
+        <v>0.005530235635440583</v>
+      </c>
+      <c r="T21">
+        <v>0.003868233579965672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.1847595</v>
+      </c>
+      <c r="H22">
+        <v>0.369519</v>
+      </c>
+      <c r="I22">
+        <v>0.05741497957224647</v>
+      </c>
+      <c r="J22">
+        <v>0.03902349748514675</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.840024</v>
+      </c>
+      <c r="O22">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P22">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q22">
+        <v>0.7291856380759999</v>
+      </c>
+      <c r="R22">
+        <v>4.375113828456</v>
+      </c>
+      <c r="S22">
+        <v>0.0004640443918206788</v>
+      </c>
+      <c r="T22">
+        <v>0.0003245851022209636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.1847595</v>
+      </c>
+      <c r="H23">
+        <v>0.369519</v>
+      </c>
+      <c r="I23">
+        <v>0.05741497957224647</v>
+      </c>
+      <c r="J23">
+        <v>0.03902349748514675</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P23">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q23">
+        <v>34.3288221416545</v>
+      </c>
+      <c r="R23">
+        <v>205.972932849927</v>
+      </c>
+      <c r="S23">
+        <v>0.02184642231116458</v>
+      </c>
+      <c r="T23">
+        <v>0.01528091567104186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.1847595</v>
+      </c>
+      <c r="H24">
+        <v>0.369519</v>
+      </c>
+      <c r="I24">
+        <v>0.05741497957224647</v>
+      </c>
+      <c r="J24">
+        <v>0.03902349748514675</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N24">
+        <v>352.018273</v>
+      </c>
+      <c r="O24">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P24">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q24">
+        <v>21.6795733701145</v>
+      </c>
+      <c r="R24">
+        <v>130.077440220687</v>
+      </c>
+      <c r="S24">
+        <v>0.0137966025579045</v>
+      </c>
+      <c r="T24">
+        <v>0.009650308743069446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.1847595</v>
+      </c>
+      <c r="H25">
+        <v>0.369519</v>
+      </c>
+      <c r="I25">
+        <v>0.05741497957224647</v>
+      </c>
+      <c r="J25">
+        <v>0.03902349748514675</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N25">
+        <v>419.292457</v>
+      </c>
+      <c r="O25">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P25">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q25">
+        <v>25.8227549030305</v>
+      </c>
+      <c r="R25">
+        <v>154.936529418183</v>
+      </c>
+      <c r="S25">
+        <v>0.01643327016934789</v>
+      </c>
+      <c r="T25">
+        <v>0.0114945784751639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1847595</v>
+      </c>
+      <c r="H26">
+        <v>0.369519</v>
+      </c>
+      <c r="I26">
+        <v>0.05741497957224647</v>
+      </c>
+      <c r="J26">
+        <v>0.03902349748514675</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.458574</v>
+      </c>
+      <c r="N26">
+        <v>82.917148</v>
+      </c>
+      <c r="O26">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P26">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q26">
+        <v>7.659865402953</v>
+      </c>
+      <c r="R26">
+        <v>30.639461611812</v>
+      </c>
+      <c r="S26">
+        <v>0.004874640142008817</v>
+      </c>
+      <c r="T26">
+        <v>0.002273109493650585</v>
       </c>
     </row>
   </sheetData>
